--- a/Great/Data/Templates/ExpenseAccount.xlsx
+++ b/Great/Data/Templates/ExpenseAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baccarani.m\Documents\Repositories\Great2\Great\Data\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E81229-E881-4D02-9AD8-C11BA2C45674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74169089-25B7-4EE6-9F6C-F5E8115A83A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA43904B-D1B7-46B5-B93E-07C716AE1020}"/>
   </bookViews>
@@ -31,13 +31,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">NOTA SPESE NR </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>FDL</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>EXPENSE ACCOUNT NR.</t>
+  </si>
+  <si>
+    <t>Expense Type</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>CONTABILITY</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>HEAD OF ISSUING OFFICE</t>
+  </si>
+  <si>
+    <t>I, the undersigned, declare that the expenses shown in this note have actually been incurred even if they do not have a regular justification.</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">RESA DI CONTO </t>
+      <t xml:space="preserve">EXPENSE ACCOUNT </t>
     </r>
     <r>
       <rPr>
@@ -45,7 +123,7 @@
         <rFont val="MS Sans Serif"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">DELLE SPESE SOSTENUTE DAL DIPENDENTE </t>
+      <t xml:space="preserve">INCURRED BY THE EMPLOYEE </t>
     </r>
     <r>
       <rPr>
@@ -56,87 +134,6 @@
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
-  </si>
-  <si>
-    <t>CDC</t>
-  </si>
-  <si>
-    <t>SIGNOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEL PERIODO DAL </t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>CLIENTE / FORNITORE</t>
-  </si>
-  <si>
-    <t>LOCALITA'</t>
-  </si>
-  <si>
-    <t>COMMESSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUTA   </t>
-  </si>
-  <si>
-    <t>Tipo spesa</t>
-  </si>
-  <si>
-    <t>Lunedì</t>
-  </si>
-  <si>
-    <t>Martedì</t>
-  </si>
-  <si>
-    <t>Mercoledi</t>
-  </si>
-  <si>
-    <t>Giovedì</t>
-  </si>
-  <si>
-    <t>Venerdì</t>
-  </si>
-  <si>
-    <t>Sabato</t>
-  </si>
-  <si>
-    <t>Domenica</t>
-  </si>
-  <si>
-    <t>Totale</t>
-  </si>
-  <si>
-    <t>Totali</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale spese </t>
-  </si>
-  <si>
-    <t>lo sottoscritto dichiaro che le spese esposte nella presente nota sono state realmente sostenute anche se mancanti di regolare giustificativo.</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Firma</t>
-  </si>
-  <si>
-    <t>CAPO UFFICIO EMITTENTE</t>
-  </si>
-  <si>
-    <t>IL DIRETTORE</t>
-  </si>
-  <si>
-    <t>CONTABILITA'</t>
-  </si>
-  <si>
-    <t>FDL</t>
   </si>
 </sst>
 </file>
@@ -1039,65 +1036,100 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1168,94 +1200,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1657,7 +1654,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,21 +1680,21 @@
       <c r="C2" s="8"/>
       <c r="H2" s="9"/>
       <c r="I2" s="10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
+      <c r="D3" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1705,15 +1702,15 @@
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1721,37 +1718,37 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="101"/>
+      <c r="A6" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="54"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="23" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="19"/>
@@ -1771,13 +1768,13 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="19"/>
@@ -1785,11 +1782,11 @@
     <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="19"/>
@@ -1809,15 +1806,15 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="27"/>
       <c r="H13" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="31"/>
@@ -1835,10 +1832,10 @@
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="32" t="s">
         <v>11</v>
       </c>
@@ -1860,13 +1857,13 @@
       <c r="I15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="J15" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -1874,11 +1871,11 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="95"/>
+      <c r="J16" s="76"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
@@ -1892,8 +1889,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -1907,8 +1904,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -1922,8 +1919,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="37"/>
@@ -1937,8 +1934,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="37"/>
@@ -1952,8 +1949,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="37"/>
@@ -1967,8 +1964,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="37"/>
@@ -1982,8 +1979,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="37"/>
@@ -1997,8 +1994,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="37"/>
@@ -2012,8 +2009,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="37"/>
@@ -2027,8 +2024,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="37"/>
@@ -2042,8 +2039,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -2057,8 +2054,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
@@ -2072,8 +2069,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="35"/>
@@ -2087,8 +2084,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -2102,8 +2099,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -2117,8 +2114,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
@@ -2132,8 +2129,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
@@ -2147,8 +2144,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -2162,8 +2159,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
@@ -2177,8 +2174,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
@@ -2192,10 +2189,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="70"/>
+      <c r="A38" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="78"/>
       <c r="C38" s="38">
         <f>SUM(C17:C37)</f>
         <v>0</v>
@@ -2227,169 +2224,165 @@
       <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
       <c r="J39" s="40">
         <f>SUM(B38:J38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="84"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="92"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="87"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="95"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="87"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="95"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86"/>
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="86"/>
       <c r="G44" s="41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H44" s="42"/>
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="76"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="78"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="86"/>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="76"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="78"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="89"/>
+        <v>21</v>
+      </c>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="97"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="79"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="81"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="89"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="58"/>
+      <c r="A48" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="99"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="104"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="107"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="61"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J49"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A40:F47"/>
+    <mergeCell ref="G40:J42"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -2402,20 +2395,24 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A40:F47"/>
-    <mergeCell ref="G40:J42"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J49"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.59055118110236227" bottom="3.937007874015748E-2" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Great/Data/Templates/ExpenseAccount.xlsx
+++ b/Great/Data/Templates/ExpenseAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baccarani.m\Documents\Repositories\Great2\Great\Data\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74169089-25B7-4EE6-9F6C-F5E8115A83A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAECF9BA-C876-469B-A6C4-9C48FE109AC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA43904B-D1B7-46B5-B93E-07C716AE1020}"/>
   </bookViews>
@@ -1036,6 +1036,153 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1106,153 +1253,6 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1687,14 +1687,14 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1708,9 +1708,9 @@
       <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1718,35 +1718,35 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
       <c r="H8" s="23" t="s">
         <v>1</v>
       </c>
@@ -1770,11 +1770,11 @@
       <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="19"/>
@@ -1782,11 +1782,11 @@
     <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="19"/>
@@ -1808,10 +1808,10 @@
       <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
       <c r="G13" s="27"/>
       <c r="H13" s="17" t="s">
         <v>8</v>
@@ -1832,10 +1832,10 @@
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="32" t="s">
         <v>11</v>
       </c>
@@ -1857,13 +1857,13 @@
       <c r="I15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="94" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -1871,11 +1871,11 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="76"/>
+      <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
@@ -1889,8 +1889,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -1904,8 +1904,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -1919,8 +1919,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="37"/>
@@ -1934,8 +1934,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="37"/>
@@ -1949,8 +1949,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="37"/>
@@ -1964,8 +1964,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="37"/>
@@ -1979,8 +1979,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="37"/>
@@ -1994,8 +1994,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="37"/>
@@ -2009,8 +2009,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="37"/>
@@ -2024,8 +2024,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="37"/>
@@ -2039,8 +2039,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -2054,8 +2054,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
@@ -2069,8 +2069,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="35"/>
@@ -2084,8 +2084,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -2099,8 +2099,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -2114,8 +2114,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
@@ -2129,8 +2129,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
@@ -2144,8 +2144,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -2159,8 +2159,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
@@ -2174,8 +2174,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="70"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
@@ -2189,10 +2189,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="38">
         <f>SUM(C17:C37)</f>
         <v>0</v>
@@ -2224,78 +2224,78 @@
       <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82" t="s">
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
       <c r="J39" s="40">
         <f>SUM(B38:J38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="90" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="95"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="87"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="95"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="87"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="78"/>
       <c r="G44" s="41" t="s">
         <v>20</v>
       </c>
@@ -2303,86 +2303,90 @@
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="86"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="78"/>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="86"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="78"/>
       <c r="G46" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="97"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="89"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="87"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="89"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="81"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="98" t="s">
+      <c r="A48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="101" t="s">
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="102"/>
-      <c r="F48" s="103" t="s">
+      <c r="E48" s="53"/>
+      <c r="F48" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="104"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="107"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J49"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A40:F47"/>
-    <mergeCell ref="G40:J42"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -2395,26 +2399,22 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A40:F47"/>
+    <mergeCell ref="G40:J42"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J49"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
   </mergeCells>
-  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.59055118110236227" bottom="3.937007874015748E-2" header="0" footer="0"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.19685039370078741" bottom="3.937007874015748E-2" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
